--- a/output/fit_clients/fit_round_462.xlsx
+++ b/output/fit_clients/fit_round_462.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2248782820.123295</v>
+        <v>1528407809.700753</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07271024100352015</v>
+        <v>0.08111844103315773</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03406611737339246</v>
+        <v>0.02794949975382515</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1124391439.147579</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1697313829.08138</v>
+        <v>1681724276.961052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1652865572183197</v>
+        <v>0.1469318853081081</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03833862774433478</v>
+        <v>0.03265512682008533</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>848656907.7436807</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5083579835.056565</v>
+        <v>4233905225.95161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1378069492817522</v>
+        <v>0.1509195856651997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02986189178252295</v>
+        <v>0.02747600588852182</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>167</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2541790008.501915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3274988726.559178</v>
+        <v>4093980024.813621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08418942431612866</v>
+        <v>0.08651757627346035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04921105008026767</v>
+        <v>0.03318775748451239</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>171</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1637494414.99017</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2748612242.628198</v>
+        <v>2612772731.584992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1461817774846093</v>
+        <v>0.09532708632588448</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03967712246693472</v>
+        <v>0.05349577268929475</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>87</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1374306069.912193</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2797632886.69707</v>
+        <v>2618800135.889786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1016847080482353</v>
+        <v>0.07820232620230792</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03495366324491274</v>
+        <v>0.03918101190276481</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>146</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1398816427.800578</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2973676752.665591</v>
+        <v>2816112804.429756</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1473364130864568</v>
+        <v>0.1920150471267879</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02138630291337039</v>
+        <v>0.02488108808383026</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>147</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1486838431.175082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258182424.486968</v>
+        <v>1562309760.839729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1337259988289709</v>
+        <v>0.1729820815961216</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03669831966298445</v>
+        <v>0.02459584786346856</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1129091203.056442</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5470953868.720134</v>
+        <v>3887811292.05253</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2045839050907569</v>
+        <v>0.139126163484151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04788789245724562</v>
+        <v>0.04918168486961907</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>195</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2735477070.132802</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3450598122.938959</v>
+        <v>3662316357.39684</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1417475363619916</v>
+        <v>0.123898574481257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03421596830071069</v>
+        <v>0.03503746592251362</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>191</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1725299035.90179</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2640616909.451158</v>
+        <v>2269408083.772342</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1379708360780112</v>
+        <v>0.1340982368407498</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05204475251596053</v>
+        <v>0.0345036561919174</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>157</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1320308439.858574</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5197920033.49431</v>
+        <v>3652848010.117158</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07270507413385596</v>
+        <v>0.09962595426318725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02944817565374215</v>
+        <v>0.01909277003271309</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>155</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2598960010.852559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3543237434.674935</v>
+        <v>2539976912.241642</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1744701634488041</v>
+        <v>0.1365353630256863</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04274106611269753</v>
+        <v>0.04167625400806332</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1771618712.4563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1838325015.478252</v>
+        <v>1847216818.5554</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09514527124069036</v>
+        <v>0.08907717545210744</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03308268662786416</v>
+        <v>0.03743932075297706</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>919162669.9791769</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2881649002.068527</v>
+        <v>2536480061.667957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07195863749752841</v>
+        <v>0.07534941487386586</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03735184624809672</v>
+        <v>0.03997612671100724</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1440824497.773371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3794502767.6558</v>
+        <v>4761493117.860267</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1451927070366418</v>
+        <v>0.1359980308130354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04271871689068227</v>
+        <v>0.04109698163885943</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1897251428.560384</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3581046614.209273</v>
+        <v>2906030896.166749</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1524126703625681</v>
+        <v>0.138525876986643</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02640596257474221</v>
+        <v>0.02766695053432031</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>152</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1790523295.27383</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>986801383.1378981</v>
+        <v>1033325598.149472</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1256557043928154</v>
+        <v>0.1371704291556629</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02184999391807801</v>
+        <v>0.02460815183200877</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>493400717.6016129</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2357224017.136836</v>
+        <v>1910730840.236506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1559266739953346</v>
+        <v>0.1584270406405544</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02052701579197141</v>
+        <v>0.0228036436549851</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>64</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1178611996.890921</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2206850842.1924</v>
+        <v>2096067525.466169</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08241875032308942</v>
+        <v>0.08907119617766608</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03714700080840082</v>
+        <v>0.03328799523354761</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1103425437.261298</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3195319394.251338</v>
+        <v>3330339617.93258</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09214703037820292</v>
+        <v>0.09761993809353592</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04732862964502599</v>
+        <v>0.04809428002882614</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1597659746.983183</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>976064715.3705207</v>
+        <v>1336368435.629806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1470295119195413</v>
+        <v>0.1664185358769829</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03984730088042943</v>
+        <v>0.0394223237611314</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>488032431.9165381</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4076909039.187508</v>
+        <v>2838719850.293917</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09062837811509564</v>
+        <v>0.1131833758642243</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03677973277177374</v>
+        <v>0.03312706511502951</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>135</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2038454482.434919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1472159173.986271</v>
+        <v>1212295014.15845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1173633470972939</v>
+        <v>0.1012447117543831</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02408627921908272</v>
+        <v>0.03063258154705051</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>736079542.3615019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1076621338.854903</v>
+        <v>1138749028.033775</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08177057011405189</v>
+        <v>0.08857565250453966</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02747284269870011</v>
+        <v>0.03291361213340886</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>538310660.3327208</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2987958291.764329</v>
+        <v>3887710428.977149</v>
       </c>
       <c r="F27" t="n">
-        <v>0.145404346831516</v>
+        <v>0.1211597313609458</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0218404689338793</v>
+        <v>0.02559443209647389</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>107</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1493979206.31061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2425226105.294124</v>
+        <v>3141769444.185584</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1026660918473964</v>
+        <v>0.1166922673846318</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04925022023747436</v>
+        <v>0.0304646035222462</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>148</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1212613013.978059</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3798344480.159351</v>
+        <v>4836009943.41202</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1252758044099774</v>
+        <v>0.1060316343889857</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03446552006266765</v>
+        <v>0.04259866993552834</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>204</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1899172270.920627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2181459430.180543</v>
+        <v>1514330485.254061</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08916007665194486</v>
+        <v>0.1145869481685437</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03122112315844762</v>
+        <v>0.0260001744804071</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1090729773.237352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1468084260.619087</v>
+        <v>945371300.2498459</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1061732090185063</v>
+        <v>0.1091632073539459</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05029461442741429</v>
+        <v>0.03363384775995004</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>734042018.6961536</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1899190079.415759</v>
+        <v>1877616182.334563</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08892472656333768</v>
+        <v>0.08698318798321197</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03307800520173376</v>
+        <v>0.03758209859952055</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>949595190.7547565</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2527225405.459201</v>
+        <v>2295057094.995075</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1306174464863351</v>
+        <v>0.1501281101355328</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05770301403895959</v>
+        <v>0.04060013655850869</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>142</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1263612738.641089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323754468.945986</v>
+        <v>1319105713.742099</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1185385967622249</v>
+        <v>0.0781084558954427</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01768911762565522</v>
+        <v>0.01966713703275945</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>661877219.2351032</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>902659285.6427739</v>
+        <v>851986090.6868209</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102143641914449</v>
+        <v>0.0757624839689022</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03091688131722315</v>
+        <v>0.03246915535201354</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>451329682.7520759</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2613825476.123912</v>
+        <v>1966582098.076059</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1339061357769495</v>
+        <v>0.131446599564546</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01758205127056216</v>
+        <v>0.0179930554905888</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1306912750.95023</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2805653723.143852</v>
+        <v>1950005443.602218</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09943331453679119</v>
+        <v>0.09923704175186489</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04026775746396808</v>
+        <v>0.0365884759821672</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>124</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1402826999.727629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1974409728.147337</v>
+        <v>1419264869.298709</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09092842201665642</v>
+        <v>0.09995671400301621</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03030810599700735</v>
+        <v>0.03585727908747421</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>987204846.3422593</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1749775437.618715</v>
+        <v>1989546970.032244</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1252074947785975</v>
+        <v>0.1827171522296845</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03201761841900071</v>
+        <v>0.02041547835475994</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>874887751.3342829</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1268034069.459717</v>
+        <v>1820310182.304223</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1264350682425572</v>
+        <v>0.1407941449723272</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0570743666873027</v>
+        <v>0.0500984781404129</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>634017058.9983528</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2691407886.251681</v>
+        <v>2229389902.740116</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1375999495228004</v>
+        <v>0.1055961262417122</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03033396101016137</v>
+        <v>0.02977306510134197</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>111</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1345703949.687511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4123253980.619748</v>
+        <v>4139385755.91759</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08345818822443619</v>
+        <v>0.08408900872726176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04257311201542559</v>
+        <v>0.03473672786998687</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2061627028.079233</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3084986711.501656</v>
+        <v>2956195713.784745</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1306104931025059</v>
+        <v>0.1535240415422327</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01672654985328595</v>
+        <v>0.02561789807388829</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>161</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1542493345.593402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2301839094.401754</v>
+        <v>1594150821.428214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06908468750288095</v>
+        <v>0.08606670460225345</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03410102395781293</v>
+        <v>0.02546215658290083</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1150919713.788862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1970946941.97126</v>
+        <v>1579309247.191117</v>
       </c>
       <c r="F45" t="n">
-        <v>0.11923028049132</v>
+        <v>0.1247187485631302</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04462937099024582</v>
+        <v>0.0546331345660924</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>985473458.920923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5589130356.418728</v>
+        <v>4715940317.004317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.10991113853859</v>
+        <v>0.1275201975355237</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0602906731388065</v>
+        <v>0.04838702693751439</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>165</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2794565238.787135</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4616293901.404215</v>
+        <v>4562940848.282907</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1501715910075334</v>
+        <v>0.1721698566994966</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03612292989355895</v>
+        <v>0.05302565256336938</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2308146984.816901</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3079921957.284763</v>
+        <v>3738029710.779605</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06966698284603332</v>
+        <v>0.1014980023261597</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02543921131581573</v>
+        <v>0.02707138447806465</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>150</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1539961066.509362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1717710593.847956</v>
+        <v>1336780410.919059</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1875056337752639</v>
+        <v>0.1184568088353408</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04324954348480195</v>
+        <v>0.02770118733791939</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>858855295.1307373</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3109398856.538045</v>
+        <v>4130123937.089363</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1702647404331979</v>
+        <v>0.1218373165436235</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04277167431857394</v>
+        <v>0.04579929569874194</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>158</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1554699480.328286</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1156138852.240162</v>
+        <v>1198565880.638968</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1473070306625035</v>
+        <v>0.1708474862402844</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05124857894135214</v>
+        <v>0.03721808982431413</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>578069484.7920957</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3993477176.620871</v>
+        <v>4086050936.349894</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09817027861093448</v>
+        <v>0.1191297384050523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05131986060081756</v>
+        <v>0.05488931186275327</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>191</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1996738645.193799</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3509485148.222585</v>
+        <v>2449583289.63486</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1454679869095237</v>
+        <v>0.1673764390436902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02844825683305509</v>
+        <v>0.03241521889806215</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>132</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1754742571.351486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4409513832.521337</v>
+        <v>3225374966.118104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1585616023392875</v>
+        <v>0.1152047632432823</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03942794874205233</v>
+        <v>0.04104804478518384</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2204757012.519263</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4435297458.265181</v>
+        <v>4288546302.861327</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1917281995342448</v>
+        <v>0.1801198642042463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03170768824429013</v>
+        <v>0.02440054328258259</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>130</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2217648723.259049</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1343561495.605207</v>
+        <v>1585644379.288385</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1364303522556376</v>
+        <v>0.1524137506132072</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05818904971622171</v>
+        <v>0.03776871540288165</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>671780813.2583357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3333871373.049005</v>
+        <v>4194020812.286489</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1776570597954001</v>
+        <v>0.1217332554756692</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01891278174023232</v>
+        <v>0.02333566920357634</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>147</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1666935718.982065</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1814300405.543574</v>
+        <v>1774177529.371856</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1836724278090505</v>
+        <v>0.1694004139376086</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02964281985424791</v>
+        <v>0.03510434363189607</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>907150205.2427371</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5205217017.505449</v>
+        <v>3385395191.396887</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1306754853659853</v>
+        <v>0.0919974611861019</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05011990955660247</v>
+        <v>0.03209232000089028</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2602608426.594665</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2791002333.753836</v>
+        <v>2683309035.729009</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1690099984304525</v>
+        <v>0.1662025699613003</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03181809240062027</v>
+        <v>0.02414716132020791</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1395501215.323954</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2567912285.270255</v>
+        <v>2909746457.556558</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1169932226650122</v>
+        <v>0.1782235009407858</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02128755811583807</v>
+        <v>0.02992151924789072</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>158</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1283956163.870426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1380906112.581065</v>
+        <v>1985545823.250639</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1902628100263948</v>
+        <v>0.1345669721835833</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03192667817252672</v>
+        <v>0.04851475485348426</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>690453021.5025344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3478942894.123334</v>
+        <v>4402880416.772992</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09405828732489357</v>
+        <v>0.07197838513245335</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0323757079891927</v>
+        <v>0.03568513192776469</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>133</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1739471532.695363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5537458463.750913</v>
+        <v>4161851266.519185</v>
       </c>
       <c r="F64" t="n">
-        <v>0.168003548567878</v>
+        <v>0.1260998724744876</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02743012189257397</v>
+        <v>0.02813500507027732</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>144</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2768729375.896924</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4709498863.363396</v>
+        <v>5208586550.165358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.125842297105164</v>
+        <v>0.1419161875786557</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03196568510982584</v>
+        <v>0.02571354033831116</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>166</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2354749407.93713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4220975436.29801</v>
+        <v>4112666280.327318</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1233071550064265</v>
+        <v>0.1472970604024622</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03413103124792457</v>
+        <v>0.04181010801287614</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2110487703.630646</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2113571562.436031</v>
+        <v>2561807919.364054</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07867990156762662</v>
+        <v>0.09018752502320591</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03250153483693322</v>
+        <v>0.04876946100717568</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>149</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1056785874.587112</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5376726464.771939</v>
+        <v>5559593843.125504</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1374845500801105</v>
+        <v>0.1572652079652403</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04681370762041104</v>
+        <v>0.03805772656092149</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>147</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2688363311.638403</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1715339800.050849</v>
+        <v>2453942540.957085</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1181393898785712</v>
+        <v>0.1193648229554683</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05628821633121296</v>
+        <v>0.05641456502759696</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>857669868.2241271</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3145964145.463573</v>
+        <v>3540645544.847599</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06234917766052871</v>
+        <v>0.07741757534894936</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04927036583307722</v>
+        <v>0.03701266795972751</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>132</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1572982059.219187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5602150617.886099</v>
+        <v>4674769360.599205</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1302387428373887</v>
+        <v>0.161475266292009</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02307700534088426</v>
+        <v>0.02763998143989394</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>168</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2801075459.625398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1984714547.748306</v>
+        <v>1987053811.190341</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09759159131473708</v>
+        <v>0.107828946890619</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04861801641493593</v>
+        <v>0.0354991902796077</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>992357222.7137301</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2534708286.029657</v>
+        <v>3593296720.46605</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1052958577940296</v>
+        <v>0.07371763230371207</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04575764359355303</v>
+        <v>0.04616006621798398</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1267354181.612629</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2851275977.695094</v>
+        <v>2935995190.250745</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1638959841438223</v>
+        <v>0.1486815052252795</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03516650439148998</v>
+        <v>0.03387808404986297</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>157</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1425638067.122618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1621633586.345198</v>
+        <v>2310918513.421761</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1023514102962358</v>
+        <v>0.1063142032837919</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02546083893594832</v>
+        <v>0.03735979735781556</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>810816792.7947052</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3819690087.689607</v>
+        <v>3660428330.121266</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1251945915902713</v>
+        <v>0.1131685262014914</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0287040146784343</v>
+        <v>0.0319915311308751</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1909845021.043774</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2165562356.828099</v>
+        <v>1555804795.036827</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1326456467930867</v>
+        <v>0.1258437291455232</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0256405977044825</v>
+        <v>0.02479607544087408</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1082781264.388347</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4789250712.757478</v>
+        <v>3569002107.41415</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1099218930631621</v>
+        <v>0.1339892908591083</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0382720128973662</v>
+        <v>0.04863104069160262</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>161</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2394625265.626789</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1856609994.373627</v>
+        <v>1608230002.5908</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1729085066474848</v>
+        <v>0.1440138545632471</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02660579039027076</v>
+        <v>0.03602440015652234</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>928305093.8130025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5599227158.568312</v>
+        <v>4984106498.859891</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09744407567201588</v>
+        <v>0.1100709659122904</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02475244004178326</v>
+        <v>0.03791922296684071</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2799613658.319255</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4286745158.73062</v>
+        <v>3454339141.809938</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09606057106210836</v>
+        <v>0.09968792764130281</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03135373661878075</v>
+        <v>0.02130910968391671</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2143372553.247736</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4810411622.545527</v>
+        <v>4042278747.771781</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1490482927533338</v>
+        <v>0.1350112090465821</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02280188150829879</v>
+        <v>0.02528737868336162</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>162</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2405205805.834623</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2395535821.376191</v>
+        <v>2475786965.904941</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1568335362352325</v>
+        <v>0.1420582406479295</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0274072287851698</v>
+        <v>0.04308766369245006</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1197767945.277746</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2342976987.950306</v>
+        <v>2409334530.812763</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1158470842318392</v>
+        <v>0.07644627872263289</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04783157418980333</v>
+        <v>0.04320770473982958</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1171488448.759901</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2680843519.180284</v>
+        <v>3621381662.71831</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542958006273332</v>
+        <v>0.1203560671662285</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05168702854166286</v>
+        <v>0.04936839451395784</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>172</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1340421784.507179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1915764627.470092</v>
+        <v>2011974089.791198</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1702181513141853</v>
+        <v>0.1096718245693539</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01709454835684192</v>
+        <v>0.0266459921319892</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>57</v>
-      </c>
-      <c r="J86" t="n">
-        <v>957882329.6571975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1403211545.117202</v>
+        <v>1305488358.987272</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1800178837781447</v>
+        <v>0.1727038770501134</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02979039971118283</v>
+        <v>0.0404473187382702</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>701605880.2409991</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3187280789.120063</v>
+        <v>3561677005.013257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1518542907450252</v>
+        <v>0.1173323183497423</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02945638632241237</v>
+        <v>0.03832541431709086</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>184</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1593640443.526726</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2336230489.319498</v>
+        <v>2663811091.109047</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1543870120273901</v>
+        <v>0.1487007085961851</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03286087467016552</v>
+        <v>0.03696693117524738</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>156</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1168115331.459667</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1460351534.220647</v>
+        <v>2131705607.227643</v>
       </c>
       <c r="F90" t="n">
-        <v>0.090972658625586</v>
+        <v>0.1158289592134847</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04830154722396127</v>
+        <v>0.04022616035827692</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>730175738.5854777</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2099272762.431718</v>
+        <v>1397253340.940177</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1397504602118539</v>
+        <v>0.1479253505334403</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05474863196430654</v>
+        <v>0.05457570015450763</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1049636340.272357</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1832422221.160672</v>
+        <v>2388610616.16389</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09571962229968739</v>
+        <v>0.08097531653746659</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03290622113532832</v>
+        <v>0.03975384709675837</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>127</v>
-      </c>
-      <c r="J92" t="n">
-        <v>916211044.0958567</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4328026148.112385</v>
+        <v>4525103244.187396</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1011815265832216</v>
+        <v>0.117924771814899</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04983366385484131</v>
+        <v>0.04924918093410469</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2164013053.463445</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1875048162.922257</v>
+        <v>2480240799.854382</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1598523258966291</v>
+        <v>0.1248865026291696</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04124908169500096</v>
+        <v>0.03788314111026135</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>937524063.5560633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2473052170.068797</v>
+        <v>3280017096.993682</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09207858260012007</v>
+        <v>0.1001284823799543</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05212906232999844</v>
+        <v>0.0411454215800957</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1236526123.112194</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1487580195.815546</v>
+        <v>2186237214.115057</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1253481767301814</v>
+        <v>0.1348766657014153</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03617217185586969</v>
+        <v>0.0329797582793378</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>743790139.5946486</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4495615472.715188</v>
+        <v>4373095126.823562</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317653843973775</v>
+        <v>0.153831638582285</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01888045339491507</v>
+        <v>0.02889792973133199</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>149</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2247807832.608743</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3575724538.01846</v>
+        <v>2940379154.440131</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0983774599364402</v>
+        <v>0.07963331600901749</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02650540188515693</v>
+        <v>0.02690364499888568</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>122</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1787862292.748647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2501158252.063149</v>
+        <v>2072650458.790213</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09764006858013095</v>
+        <v>0.1214210275137293</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03513667977074542</v>
+        <v>0.02386952119131896</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1250579075.83137</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3937053594.176598</v>
+        <v>4631559545.528006</v>
       </c>
       <c r="F100" t="n">
-        <v>0.114548917450367</v>
+        <v>0.1750694911595944</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01706596385502972</v>
+        <v>0.01902048326603742</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1968526862.765999</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2593732290.690155</v>
+        <v>2949935301.726839</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1525165130444281</v>
+        <v>0.214281923277464</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0550096415156285</v>
+        <v>0.05683691903086548</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>190</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1296866180.70767</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_462.xlsx
+++ b/output/fit_clients/fit_round_462.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1528407809.700753</v>
+        <v>2070729754.372696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08111844103315773</v>
+        <v>0.1009472929011243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02794949975382515</v>
+        <v>0.04321207017507431</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1681724276.961052</v>
+        <v>2437654894.891612</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1469318853081081</v>
+        <v>0.1693028811533726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03265512682008533</v>
+        <v>0.04222903895119844</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4233905225.95161</v>
+        <v>3619401706.327536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1509195856651997</v>
+        <v>0.1008923118215644</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02747600588852182</v>
+        <v>0.0252572636161111</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4093980024.813621</v>
+        <v>2644936862.02659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08651757627346035</v>
+        <v>0.1066342902280615</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03318775748451239</v>
+        <v>0.04279023342444829</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2612772731.584992</v>
+        <v>2624804176.965572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09532708632588448</v>
+        <v>0.1125051983966516</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05349577268929475</v>
+        <v>0.03546037191866269</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2618800135.889786</v>
+        <v>1923696662.890074</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07820232620230792</v>
+        <v>0.0981018813248382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03918101190276481</v>
+        <v>0.04366023509143813</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2816112804.429756</v>
+        <v>3798118871.257863</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1920150471267879</v>
+        <v>0.1662413786892519</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02488108808383026</v>
+        <v>0.0287654033244141</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1562309760.839729</v>
+        <v>1559637064.090085</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1729820815961216</v>
+        <v>0.1671461538137322</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02459584786346856</v>
+        <v>0.02447870558153109</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3887811292.05253</v>
+        <v>3912706583.148574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.139126163484151</v>
+        <v>0.1544558736000389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04918168486961907</v>
+        <v>0.05278989382489219</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3662316357.39684</v>
+        <v>3171349259.980814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123898574481257</v>
+        <v>0.1814840171097415</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03503746592251362</v>
+        <v>0.03570501609348599</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2269408083.772342</v>
+        <v>2570529163.43501</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1340982368407498</v>
+        <v>0.1272512563912419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0345036561919174</v>
+        <v>0.05143434279746363</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3652848010.117158</v>
+        <v>4913579899.338844</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09962595426318725</v>
+        <v>0.1002342372851232</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01909277003271309</v>
+        <v>0.03103433963630587</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2539976912.241642</v>
+        <v>3369479585.338564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1365353630256863</v>
+        <v>0.1839892668996174</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04167625400806332</v>
+        <v>0.02991139891515444</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1847216818.5554</v>
+        <v>1221080911.864015</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08907717545210744</v>
+        <v>0.07461292759889629</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03743932075297706</v>
+        <v>0.03292933289179888</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2536480061.667957</v>
+        <v>2634878705.722541</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07534941487386586</v>
+        <v>0.09301504628244361</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03997612671100724</v>
+        <v>0.03326577354575829</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4761493117.860267</v>
+        <v>4138875452.775989</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1359980308130354</v>
+        <v>0.1147014759521257</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04109698163885943</v>
+        <v>0.04259020554483756</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2906030896.166749</v>
+        <v>3523133603.381431</v>
       </c>
       <c r="F18" t="n">
-        <v>0.138525876986643</v>
+        <v>0.1543917414842647</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02766695053432031</v>
+        <v>0.03091475911308449</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1033325598.149472</v>
+        <v>863179312.2373474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1371704291556629</v>
+        <v>0.1431565207597875</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02460815183200877</v>
+        <v>0.0190071642981487</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1910730840.236506</v>
+        <v>2662364157.536397</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1584270406405544</v>
+        <v>0.1437087580822931</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0228036436549851</v>
+        <v>0.02317472641058411</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2096067525.466169</v>
+        <v>2557229926.528728</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08907119617766608</v>
+        <v>0.06305884310664961</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03328799523354761</v>
+        <v>0.03221245708130479</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3330339617.93258</v>
+        <v>2532401024.500177</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09761993809353592</v>
+        <v>0.140389015638602</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04809428002882614</v>
+        <v>0.04535717347812025</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1336368435.629806</v>
+        <v>1078703069.590581</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1664185358769829</v>
+        <v>0.1715695077384999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0394223237611314</v>
+        <v>0.03977749254082807</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2838719850.293917</v>
+        <v>3122542024.306315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1131833758642243</v>
+        <v>0.1443675128985348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03312706511502951</v>
+        <v>0.03274017112655786</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1212295014.15845</v>
+        <v>1474397575.631577</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1012447117543831</v>
+        <v>0.110327915682204</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03063258154705051</v>
+        <v>0.02829692675679784</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1138749028.033775</v>
+        <v>1048542200.34132</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08857565250453966</v>
+        <v>0.07679240158348698</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03291361213340886</v>
+        <v>0.03660640449506754</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3887710428.977149</v>
+        <v>4654515446.964917</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1211597313609458</v>
+        <v>0.1118643923764568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02559443209647389</v>
+        <v>0.02192830314481064</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3141769444.185584</v>
+        <v>2922107421.181914</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1166922673846318</v>
+        <v>0.1442788087399179</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0304646035222462</v>
+        <v>0.04741899168150221</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4836009943.41202</v>
+        <v>4471725673.104034</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1060316343889857</v>
+        <v>0.1239472564381376</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04259866993552834</v>
+        <v>0.03655654288449873</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1514330485.254061</v>
+        <v>2192968144.26943</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1145869481685437</v>
+        <v>0.1263921304901177</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0260001744804071</v>
+        <v>0.03147265719739152</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>945371300.2498459</v>
+        <v>1099585110.745774</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1091632073539459</v>
+        <v>0.1123739269728096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03363384775995004</v>
+        <v>0.04912714126222452</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1877616182.334563</v>
+        <v>1811998474.63834</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08698318798321197</v>
+        <v>0.1113741302030545</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03758209859952055</v>
+        <v>0.03103674063757339</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2295057094.995075</v>
+        <v>2990098887.188988</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1501281101355328</v>
+        <v>0.1585381227978748</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04060013655850869</v>
+        <v>0.04606641542950087</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1319105713.742099</v>
+        <v>970013449.4187384</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0781084558954427</v>
+        <v>0.1072692453894669</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01966713703275945</v>
+        <v>0.02810852488951989</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>851986090.6868209</v>
+        <v>1138450018.54962</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0757624839689022</v>
+        <v>0.07767362944740885</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03246915535201354</v>
+        <v>0.04010260322618887</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1966582098.076059</v>
+        <v>2150154723.020631</v>
       </c>
       <c r="F36" t="n">
-        <v>0.131446599564546</v>
+        <v>0.1479037043590614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0179930554905888</v>
+        <v>0.02792002796488757</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1950005443.602218</v>
+        <v>2902507520.811527</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09923704175186489</v>
+        <v>0.08152723723194753</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0365884759821672</v>
+        <v>0.02632068428618796</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1419264869.298709</v>
+        <v>1505695362.439413</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09995671400301621</v>
+        <v>0.1080676213472193</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03585727908747421</v>
+        <v>0.02826291109518317</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989546970.032244</v>
+        <v>1724667941.131422</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1827171522296845</v>
+        <v>0.1868104663630829</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02041547835475994</v>
+        <v>0.02312142116008934</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1820310182.304223</v>
+        <v>1365781655.264509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1407941449723272</v>
+        <v>0.1324426523088054</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0500984781404129</v>
+        <v>0.04534718931858934</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2229389902.740116</v>
+        <v>2222748180.344827</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1055961262417122</v>
+        <v>0.1649628470927673</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02977306510134197</v>
+        <v>0.03568964924538694</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4139385755.91759</v>
+        <v>2791094099.294707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08408900872726176</v>
+        <v>0.1264683820054642</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03473672786998687</v>
+        <v>0.04157983784676395</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2956195713.784745</v>
+        <v>2501148602.03829</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1535240415422327</v>
+        <v>0.201835663077286</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02561789807388829</v>
+        <v>0.01751215876453375</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1594150821.428214</v>
+        <v>2276942107.03677</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08606670460225345</v>
+        <v>0.08365989098534785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02546215658290083</v>
+        <v>0.03133456521396469</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1579309247.191117</v>
+        <v>1912219677.493546</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247187485631302</v>
+        <v>0.1823680925232138</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0546331345660924</v>
+        <v>0.05192487650222987</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4715940317.004317</v>
+        <v>4195904664.302268</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1275201975355237</v>
+        <v>0.121220634531434</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04838702693751439</v>
+        <v>0.050322810898753</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4562940848.282907</v>
+        <v>3563817932.85878</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721698566994966</v>
+        <v>0.1237912680416624</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05302565256336938</v>
+        <v>0.05104796737541691</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3738029710.779605</v>
+        <v>3090139041.072466</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014980023261597</v>
+        <v>0.08298129619619185</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02707138447806465</v>
+        <v>0.03052742834323397</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1336780410.919059</v>
+        <v>1931448342.304455</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1184568088353408</v>
+        <v>0.141610576646674</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02770118733791939</v>
+        <v>0.04360335847508681</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4130123937.089363</v>
+        <v>3746571139.252064</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1218373165436235</v>
+        <v>0.1731840581570257</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04579929569874194</v>
+        <v>0.03920291116873717</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198565880.638968</v>
+        <v>1423018398.76458</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1708474862402844</v>
+        <v>0.1955748868680788</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03721808982431413</v>
+        <v>0.03396490517910442</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4086050936.349894</v>
+        <v>4753767212.036367</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1191297384050523</v>
+        <v>0.1198247309793521</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05488931186275327</v>
+        <v>0.0406661473890978</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2449583289.63486</v>
+        <v>2335870791.234436</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1673764390436902</v>
+        <v>0.1533368957443866</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03241521889806215</v>
+        <v>0.02574308964625144</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3225374966.118104</v>
+        <v>3103398697.527373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1152047632432823</v>
+        <v>0.1320712135090735</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04104804478518384</v>
+        <v>0.05083819765021019</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4288546302.861327</v>
+        <v>4133362646.97072</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1801198642042463</v>
+        <v>0.136300891184286</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02440054328258259</v>
+        <v>0.01996789393415317</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1585644379.288385</v>
+        <v>1698443863.604006</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1524137506132072</v>
+        <v>0.1572029888765328</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03776871540288165</v>
+        <v>0.05069385691017642</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4194020812.286489</v>
+        <v>2912047784.51661</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1217332554756692</v>
+        <v>0.129363193578577</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02333566920357634</v>
+        <v>0.02290604874943016</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1774177529.371856</v>
+        <v>1224268076.542708</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1694004139376086</v>
+        <v>0.170125352976573</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03510434363189607</v>
+        <v>0.02614637699947016</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3385395191.396887</v>
+        <v>4478887045.872617</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0919974611861019</v>
+        <v>0.08607513581817505</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03209232000089028</v>
+        <v>0.04291414221040119</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2683309035.729009</v>
+        <v>3183079376.55159</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1662025699613003</v>
+        <v>0.1520331643306407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02414716132020791</v>
+        <v>0.03182262688911726</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2909746457.556558</v>
+        <v>2995096744.101967</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1782235009407858</v>
+        <v>0.123743782116676</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02992151924789072</v>
+        <v>0.01989108012728494</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1985545823.250639</v>
+        <v>1664412041.372536</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1345669721835833</v>
+        <v>0.1738000726818777</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04851475485348426</v>
+        <v>0.04663271552951472</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4402880416.772992</v>
+        <v>5090904505.618024</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07197838513245335</v>
+        <v>0.07888123212963555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03568513192776469</v>
+        <v>0.03773225544292875</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4161851266.519185</v>
+        <v>4970311765.183295</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1260998724744876</v>
+        <v>0.1592646078952791</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02813500507027732</v>
+        <v>0.02962205308175967</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5208586550.165358</v>
+        <v>4167838825.347213</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1419161875786557</v>
+        <v>0.1082483164246274</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02571354033831116</v>
+        <v>0.01947472872072741</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4112666280.327318</v>
+        <v>4307639540.247541</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1472970604024622</v>
+        <v>0.1364752306561635</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04181010801287614</v>
+        <v>0.03608572559431525</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2561807919.364054</v>
+        <v>2239363838.882143</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09018752502320591</v>
+        <v>0.06710750812468623</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04876946100717568</v>
+        <v>0.03855454638974799</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5559593843.125504</v>
+        <v>5047892801.750927</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1572652079652403</v>
+        <v>0.134476906746063</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03805772656092149</v>
+        <v>0.04337126178068879</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2453942540.957085</v>
+        <v>2295705753.91471</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1193648229554683</v>
+        <v>0.1423109585594041</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05641456502759696</v>
+        <v>0.03821157555348631</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3540645544.847599</v>
+        <v>2691266677.831959</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07741757534894936</v>
+        <v>0.08494235458611105</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03701266795972751</v>
+        <v>0.03151038173803049</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4674769360.599205</v>
+        <v>4749039644.676108</v>
       </c>
       <c r="F71" t="n">
-        <v>0.161475266292009</v>
+        <v>0.1444343004654544</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02763998143989394</v>
+        <v>0.0259887059357012</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1987053811.190341</v>
+        <v>1746154707.470879</v>
       </c>
       <c r="F72" t="n">
-        <v>0.107828946890619</v>
+        <v>0.09350357281543353</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0354991902796077</v>
+        <v>0.05198651478280707</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3593296720.46605</v>
+        <v>2402364739.639318</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07371763230371207</v>
+        <v>0.07085955343352376</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04616006621798398</v>
+        <v>0.05197983480359038</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2935995190.250745</v>
+        <v>2676485964.218791</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1486815052252795</v>
+        <v>0.1623450943604469</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03387808404986297</v>
+        <v>0.02217221845970149</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2310918513.421761</v>
+        <v>1528907335.745943</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1063142032837919</v>
+        <v>0.1303408834226683</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03735979735781556</v>
+        <v>0.02714223981175865</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3660428330.121266</v>
+        <v>4154278294.26185</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1131685262014914</v>
+        <v>0.1165918029003561</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0319915311308751</v>
+        <v>0.03107619550129952</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1555804795.036827</v>
+        <v>1642764225.706065</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1258437291455232</v>
+        <v>0.1230386666066172</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02479607544087408</v>
+        <v>0.02345437891105961</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3569002107.41415</v>
+        <v>3693577219.149909</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1339892908591083</v>
+        <v>0.09300203591833989</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04863104069160262</v>
+        <v>0.04136130962509123</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1608230002.5908</v>
+        <v>1411166158.08336</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1440138545632471</v>
+        <v>0.146426871496337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03602440015652234</v>
+        <v>0.03872847677644144</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4984106498.859891</v>
+        <v>3761745257.320235</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1100709659122904</v>
+        <v>0.08833152546951784</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03791922296684071</v>
+        <v>0.03764585748475752</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3454339141.809938</v>
+        <v>3702362215.37874</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09968792764130281</v>
+        <v>0.08807474164731033</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02130910968391671</v>
+        <v>0.02929319025149192</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4042278747.771781</v>
+        <v>5360668474.675463</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1350112090465821</v>
+        <v>0.1657332953445946</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02528737868336162</v>
+        <v>0.01818534159845475</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2475786965.904941</v>
+        <v>2091814662.211848</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1420582406479295</v>
+        <v>0.09573585072119085</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04308766369245006</v>
+        <v>0.03733166976820392</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2409334530.812763</v>
+        <v>2466793020.437752</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07644627872263289</v>
+        <v>0.07945521011082368</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04320770473982958</v>
+        <v>0.0344097201973133</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3621381662.71831</v>
+        <v>2703980768.698049</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1203560671662285</v>
+        <v>0.176546152642589</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04936839451395784</v>
+        <v>0.0558086331789552</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2011974089.791198</v>
+        <v>1853520083.866391</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1096718245693539</v>
+        <v>0.136766306542847</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0266459921319892</v>
+        <v>0.02657881847841252</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1305488358.987272</v>
+        <v>1061837615.598068</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1727038770501134</v>
+        <v>0.1241841426038543</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0404473187382702</v>
+        <v>0.03002549572219853</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3561677005.013257</v>
+        <v>3698174145.767937</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1173323183497423</v>
+        <v>0.1681135253931453</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03832541431709086</v>
+        <v>0.03364388518692447</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2663811091.109047</v>
+        <v>2905563888.823794</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1487007085961851</v>
+        <v>0.1229860153829598</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03696693117524738</v>
+        <v>0.03487711103302586</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2131705607.227643</v>
+        <v>1816142484.554447</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1158289592134847</v>
+        <v>0.1085319298457849</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04022616035827692</v>
+        <v>0.04433980482348707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1397253340.940177</v>
+        <v>1551427018.565292</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1479253505334403</v>
+        <v>0.1294599076129868</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05457570015450763</v>
+        <v>0.04680809015266539</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2388610616.16389</v>
+        <v>2005292821.309092</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08097531653746659</v>
+        <v>0.0911169577979786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03975384709675837</v>
+        <v>0.04554434863978073</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4525103244.187396</v>
+        <v>4747478879.931664</v>
       </c>
       <c r="F93" t="n">
-        <v>0.117924771814899</v>
+        <v>0.1383043579788625</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04924918093410469</v>
+        <v>0.0448791108099271</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2480240799.854382</v>
+        <v>1553847775.177634</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1248865026291696</v>
+        <v>0.1176920953526967</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03788314111026135</v>
+        <v>0.03291660550486898</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3280017096.993682</v>
+        <v>2953447949.22909</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1001284823799543</v>
+        <v>0.09943669684025018</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0411454215800957</v>
+        <v>0.03917794044711607</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2186237214.115057</v>
+        <v>2207546294.510615</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1348766657014153</v>
+        <v>0.1087076057263424</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0329797582793378</v>
+        <v>0.04478808683304858</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4373095126.823562</v>
+        <v>5377372138.611491</v>
       </c>
       <c r="F97" t="n">
-        <v>0.153831638582285</v>
+        <v>0.1187685005025893</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02889792973133199</v>
+        <v>0.02874408569794797</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2940379154.440131</v>
+        <v>3259414939.29185</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07963331600901749</v>
+        <v>0.08421409888746449</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02690364499888568</v>
+        <v>0.02652330154643683</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2072650458.790213</v>
+        <v>3390844394.331191</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1214210275137293</v>
+        <v>0.1269426763866388</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02386952119131896</v>
+        <v>0.02608247512258996</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4631559545.528006</v>
+        <v>3342763265.213562</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1750694911595944</v>
+        <v>0.1195561090993901</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01902048326603742</v>
+        <v>0.02029131737522172</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2949935301.726839</v>
+        <v>3035953972.985353</v>
       </c>
       <c r="F101" t="n">
-        <v>0.214281923277464</v>
+        <v>0.2141796730534564</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05683691903086548</v>
+        <v>0.05311628781636803</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_462.xlsx
+++ b/output/fit_clients/fit_round_462.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2070729754.372696</v>
+        <v>2394186440.700881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1009472929011243</v>
+        <v>0.1095506723610584</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04321207017507431</v>
+        <v>0.02908477170937775</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2437654894.891612</v>
+        <v>1634745963.94126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1693028811533726</v>
+        <v>0.1531571203727796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04222903895119844</v>
+        <v>0.04581401496630284</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3619401706.327536</v>
+        <v>4655825882.612895</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1008923118215644</v>
+        <v>0.1523835374894146</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0252572636161111</v>
+        <v>0.03737682053650206</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>462</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2644936862.02659</v>
+        <v>3690108942.244416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1066342902280615</v>
+        <v>0.1039143897046604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04279023342444829</v>
+        <v>0.03615320913578465</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>194</v>
+      </c>
+      <c r="J5" t="n">
+        <v>462</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40.12115694014265</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2624804176.965572</v>
+        <v>2820542441.867011</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1125051983966516</v>
+        <v>0.09642774902245384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03546037191866269</v>
+        <v>0.03661558075275115</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1923696662.890074</v>
+        <v>2817466246.547286</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0981018813248382</v>
+        <v>0.06301825390375879</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04366023509143813</v>
+        <v>0.04802080296294072</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3798118871.257863</v>
+        <v>2923312325.921029</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1662413786892519</v>
+        <v>0.172319325386696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0287654033244141</v>
+        <v>0.02114108867614999</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>130</v>
+      </c>
+      <c r="J8" t="n">
+        <v>458</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1559637064.090085</v>
+        <v>1984086489.943506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1671461538137322</v>
+        <v>0.1796240239986195</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02447870558153109</v>
+        <v>0.02874472687213902</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3912706583.148574</v>
+        <v>4864346682.386431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1544558736000389</v>
+        <v>0.1831702141032149</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05278989382489219</v>
+        <v>0.03963829060365456</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>356</v>
+      </c>
+      <c r="J10" t="n">
+        <v>462</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3171349259.980814</v>
+        <v>3095465265.707866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1814840171097415</v>
+        <v>0.1807950640774787</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03570501609348599</v>
+        <v>0.04018169184187022</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>192</v>
+      </c>
+      <c r="J11" t="n">
+        <v>461</v>
+      </c>
+      <c r="K11" t="n">
+        <v>27.65633737990151</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2570529163.43501</v>
+        <v>2071157670.666849</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1272512563912419</v>
+        <v>0.1897382388668772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05143434279746363</v>
+        <v>0.04090574738364316</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4913579899.338844</v>
+        <v>3624923722.816862</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1002342372851232</v>
+        <v>0.07215296858093487</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03103433963630587</v>
+        <v>0.0234863657843149</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>240</v>
+      </c>
+      <c r="J13" t="n">
+        <v>461</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32.54573633105223</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3369479585.338564</v>
+        <v>3757883165.212937</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1839892668996174</v>
+        <v>0.1187305424974067</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02991139891515444</v>
+        <v>0.03083001304558175</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>103</v>
+      </c>
+      <c r="J14" t="n">
+        <v>462</v>
+      </c>
+      <c r="K14" t="n">
+        <v>53.26616720631598</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1221080911.864015</v>
+        <v>1273756621.729356</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07461292759889629</v>
+        <v>0.1048779082061797</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03292933289179888</v>
+        <v>0.04258352556827867</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2634878705.722541</v>
+        <v>1979736981.977759</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09301504628244361</v>
+        <v>0.08626238918876433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03326577354575829</v>
+        <v>0.04260209718444616</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4138875452.775989</v>
+        <v>5111913908.075783</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1147014759521257</v>
+        <v>0.1620138096526842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04259020554483756</v>
+        <v>0.04587340617834081</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>226</v>
+      </c>
+      <c r="J17" t="n">
+        <v>461</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34.07184155650025</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3523133603.381431</v>
+        <v>3335419928.115893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1543917414842647</v>
+        <v>0.1176184872499502</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03091475911308449</v>
+        <v>0.02299332053967148</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>123</v>
+      </c>
+      <c r="J18" t="n">
+        <v>462</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40.73899279171566</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>863179312.2373474</v>
+        <v>1277613928.090439</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1431565207597875</v>
+        <v>0.1506158536314042</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0190071642981487</v>
+        <v>0.02668533236301117</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2662364157.536397</v>
+        <v>2277473761.031954</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1437087580822931</v>
+        <v>0.1549194830656968</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02317472641058411</v>
+        <v>0.02245338018377565</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2557229926.528728</v>
+        <v>2102578099.897332</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06305884310664961</v>
+        <v>0.09629140576411073</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03221245708130479</v>
+        <v>0.03547008867319128</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2532401024.500177</v>
+        <v>3613536240.225447</v>
       </c>
       <c r="F22" t="n">
-        <v>0.140389015638602</v>
+        <v>0.1353089373870479</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04535717347812025</v>
+        <v>0.05235918311518575</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>132</v>
+      </c>
+      <c r="J22" t="n">
+        <v>462</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1078703069.590581</v>
+        <v>1428992101.703256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1715695077384999</v>
+        <v>0.1536090891574815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03977749254082807</v>
+        <v>0.053106198557152</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3122542024.306315</v>
+        <v>3809033337.782407</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443675128985348</v>
+        <v>0.1295623103433169</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03274017112655786</v>
+        <v>0.0359021934078701</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>146</v>
+      </c>
+      <c r="J24" t="n">
+        <v>462</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1474397575.631577</v>
+        <v>1383128199.416674</v>
       </c>
       <c r="F25" t="n">
-        <v>0.110327915682204</v>
+        <v>0.0847619060504726</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02829692675679784</v>
+        <v>0.02887961225351082</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1048542200.34132</v>
+        <v>961884194.1325157</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07679240158348698</v>
+        <v>0.1139373658048853</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03660640449506754</v>
+        <v>0.03755256903673679</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4654515446.964917</v>
+        <v>4403349213.916119</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1118643923764568</v>
+        <v>0.1429903186704045</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02192830314481064</v>
+        <v>0.02310666795154982</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>203</v>
+      </c>
+      <c r="J27" t="n">
+        <v>461</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32.34062246157834</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2922107421.181914</v>
+        <v>3629103796.926566</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1442788087399179</v>
+        <v>0.1496374395549765</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04741899168150221</v>
+        <v>0.04533751043602273</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>114</v>
+      </c>
+      <c r="J28" t="n">
+        <v>462</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4471725673.104034</v>
+        <v>3832894274.07783</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1239472564381376</v>
+        <v>0.1012699467910412</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03655654288449873</v>
+        <v>0.02836357655947925</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>372</v>
+      </c>
+      <c r="J29" t="n">
+        <v>461</v>
+      </c>
+      <c r="K29" t="n">
+        <v>31.20282228237729</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2192968144.26943</v>
+        <v>1791762070.128004</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1263921304901177</v>
+        <v>0.1296996926325908</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03147265719739152</v>
+        <v>0.027828667905189</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1099585110.745774</v>
+        <v>1139699153.224402</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1123739269728096</v>
+        <v>0.07484589585138765</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04912714126222452</v>
+        <v>0.04999304891250213</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1811998474.63834</v>
+        <v>1185391452.673329</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1113741302030545</v>
+        <v>0.1008109382061334</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03103674063757339</v>
+        <v>0.02332168985533798</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2990098887.188988</v>
+        <v>2841497124.292687</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1585381227978748</v>
+        <v>0.1307743771349824</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04606641542950087</v>
+        <v>0.05110648450597739</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>970013449.4187384</v>
+        <v>1125185530.867307</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1072692453894669</v>
+        <v>0.09742833723383858</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02810852488951989</v>
+        <v>0.02424027738314265</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1138450018.54962</v>
+        <v>1062810266.260435</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07767362944740885</v>
+        <v>0.1113188939128984</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04010260322618887</v>
+        <v>0.03175629076078495</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2150154723.020631</v>
+        <v>2931570526.081112</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1479037043590614</v>
+        <v>0.1568442685087812</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02792002796488757</v>
+        <v>0.0268991723287567</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2902507520.811527</v>
+        <v>2433319615.776021</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08152723723194753</v>
+        <v>0.08336806676757723</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02632068428618796</v>
+        <v>0.0309600019648728</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1505695362.439413</v>
+        <v>1664774333.981652</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1080676213472193</v>
+        <v>0.09193278885636674</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02826291109518317</v>
+        <v>0.03789753012002988</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1724667941.131422</v>
+        <v>2210760107.379185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1868104663630829</v>
+        <v>0.1406322133952136</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02312142116008934</v>
+        <v>0.03168054859251736</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1365781655.264509</v>
+        <v>1672464708.06308</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1324426523088054</v>
+        <v>0.1606728877319385</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04534718931858934</v>
+        <v>0.05134590502487557</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2222748180.344827</v>
+        <v>1840315567.458154</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1649628470927673</v>
+        <v>0.1638006153567035</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03568964924538694</v>
+        <v>0.03838131077144753</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2791094099.294707</v>
+        <v>3994160339.038561</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1264683820054642</v>
+        <v>0.0875345530879809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04157983784676395</v>
+        <v>0.03379963632143605</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>202</v>
+      </c>
+      <c r="J42" t="n">
+        <v>462</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2501148602.03829</v>
+        <v>2089989141.372159</v>
       </c>
       <c r="F43" t="n">
-        <v>0.201835663077286</v>
+        <v>0.1449681171191883</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01751215876453375</v>
+        <v>0.01639564363130272</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2276942107.03677</v>
+        <v>1721201101.135435</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08365989098534785</v>
+        <v>0.09062289198218547</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03133456521396469</v>
+        <v>0.02288218926225227</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1912219677.493546</v>
+        <v>2053499251.561379</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1823680925232138</v>
+        <v>0.1261874878656572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05192487650222987</v>
+        <v>0.05120012945744622</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4195904664.302268</v>
+        <v>3934398157.383297</v>
       </c>
       <c r="F46" t="n">
-        <v>0.121220634531434</v>
+        <v>0.1212817079515175</v>
       </c>
       <c r="G46" t="n">
-        <v>0.050322810898753</v>
+        <v>0.04283558578640724</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>274</v>
+      </c>
+      <c r="J46" t="n">
+        <v>461</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32.35795499162015</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3563817932.85878</v>
+        <v>4373133113.10962</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1237912680416624</v>
+        <v>0.1550162904127952</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05104796737541691</v>
+        <v>0.05699487365026717</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>208</v>
+      </c>
+      <c r="J47" t="n">
+        <v>462</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3090139041.072466</v>
+        <v>3405003276.35155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08298129619619185</v>
+        <v>0.1070535776171792</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03052742834323397</v>
+        <v>0.02687010666542091</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>231</v>
+      </c>
+      <c r="J48" t="n">
+        <v>461</v>
+      </c>
+      <c r="K48" t="n">
+        <v>27.49626659134046</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1931448342.304455</v>
+        <v>1363571948.991007</v>
       </c>
       <c r="F49" t="n">
-        <v>0.141610576646674</v>
+        <v>0.1684355140227194</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04360335847508681</v>
+        <v>0.04263420739599271</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3746571139.252064</v>
+        <v>3230621710.99108</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1731840581570257</v>
+        <v>0.1503599771118804</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03920291116873717</v>
+        <v>0.03552198122963345</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>165</v>
+      </c>
+      <c r="J50" t="n">
+        <v>461</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29.99596727728485</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1423018398.76458</v>
+        <v>1470866044.427869</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1955748868680788</v>
+        <v>0.17458053239821</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03396490517910442</v>
+        <v>0.037592634513035</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4753767212.036367</v>
+        <v>4396735783.978937</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1198247309793521</v>
+        <v>0.1173657029999539</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0406661473890978</v>
+        <v>0.03976048518710991</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>262</v>
+      </c>
+      <c r="J52" t="n">
+        <v>461</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.01589077181917</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2335870791.234436</v>
+        <v>2611155271.406195</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1533368957443866</v>
+        <v>0.1941291502973241</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02574308964625144</v>
+        <v>0.02376533256455847</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2345,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3103398697.527373</v>
+        <v>3181671625.328496</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1320712135090735</v>
+        <v>0.1380783730284212</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05083819765021019</v>
+        <v>0.0480022100088883</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>245</v>
+      </c>
+      <c r="J54" t="n">
+        <v>461</v>
+      </c>
+      <c r="K54" t="n">
+        <v>23.493879737663</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2376,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4133362646.97072</v>
+        <v>4992015159.684991</v>
       </c>
       <c r="F55" t="n">
-        <v>0.136300891184286</v>
+        <v>0.1900238821912016</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01996789393415317</v>
+        <v>0.02561035282537937</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>230</v>
+      </c>
+      <c r="J55" t="n">
+        <v>461</v>
+      </c>
+      <c r="K55" t="n">
+        <v>32.607504091604</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1698443863.604006</v>
+        <v>1192445176.211733</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1572029888765328</v>
+        <v>0.1587909474899555</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05069385691017642</v>
+        <v>0.03797726526819168</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2912047784.51661</v>
+        <v>3074750815.603943</v>
       </c>
       <c r="F57" t="n">
-        <v>0.129363193578577</v>
+        <v>0.1393940611813486</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02290604874943016</v>
+        <v>0.02190020755035941</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>197</v>
+      </c>
+      <c r="J57" t="n">
+        <v>460</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1224268076.542708</v>
+        <v>1692602887.206965</v>
       </c>
       <c r="F58" t="n">
-        <v>0.170125352976573</v>
+        <v>0.1931556137527559</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02614637699947016</v>
+        <v>0.03442726252271798</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4478887045.872617</v>
+        <v>4210358616.846923</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08607513581817505</v>
+        <v>0.09180068094834447</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04291414221040119</v>
+        <v>0.04987349246308252</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>226</v>
+      </c>
+      <c r="J59" t="n">
+        <v>462</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3183079376.55159</v>
+        <v>3507092569.949304</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1520331643306407</v>
+        <v>0.1452180959749759</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03182262688911726</v>
+        <v>0.02166542791969031</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2995096744.101967</v>
+        <v>3219680013.076943</v>
       </c>
       <c r="F61" t="n">
-        <v>0.123743782116676</v>
+        <v>0.1238988737764975</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01989108012728494</v>
+        <v>0.02846270018048494</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1664412041.372536</v>
+        <v>1326437005.3001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1738000726818777</v>
+        <v>0.1693563476991886</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04663271552951472</v>
+        <v>0.03355698472440563</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5090904505.618024</v>
+        <v>3739415098.067215</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07888123212963555</v>
+        <v>0.08493164896413424</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03773225544292875</v>
+        <v>0.03838315557279157</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>231</v>
+      </c>
+      <c r="J63" t="n">
+        <v>462</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2699,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4970311765.183295</v>
+        <v>3674026452.230574</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1592646078952791</v>
+        <v>0.163645573874616</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02962205308175967</v>
+        <v>0.03213529793708037</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>231</v>
+      </c>
+      <c r="J64" t="n">
+        <v>462</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4167838825.347213</v>
+        <v>5576232743.463946</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1082483164246274</v>
+        <v>0.1380536100221351</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01947472872072741</v>
+        <v>0.0239296173542123</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>328</v>
+      </c>
+      <c r="J65" t="n">
+        <v>462</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4307639540.247541</v>
+        <v>3650841185.333517</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1364752306561635</v>
+        <v>0.160085805744323</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03608572559431525</v>
+        <v>0.03260380564899583</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>228</v>
+      </c>
+      <c r="J66" t="n">
+        <v>461</v>
+      </c>
+      <c r="K66" t="n">
+        <v>31.64674272743031</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2239363838.882143</v>
+        <v>3496947701.514127</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06710750812468623</v>
+        <v>0.08408696916346761</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03855454638974799</v>
+        <v>0.04255748356992221</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5047892801.750927</v>
+        <v>5833371397.151428</v>
       </c>
       <c r="F68" t="n">
-        <v>0.134476906746063</v>
+        <v>0.1502518232532517</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04337126178068879</v>
+        <v>0.05117078922294602</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>251</v>
+      </c>
+      <c r="J68" t="n">
+        <v>462</v>
+      </c>
+      <c r="K68" t="n">
+        <v>36.10915602404793</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2295705753.91471</v>
+        <v>1968457242.891503</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1423109585594041</v>
+        <v>0.1746425513202798</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03821157555348631</v>
+        <v>0.04794023065883856</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2691266677.831959</v>
+        <v>3016565704.326131</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08494235458611105</v>
+        <v>0.07491928198927726</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03151038173803049</v>
+        <v>0.04859178931285524</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>67</v>
+      </c>
+      <c r="J70" t="n">
+        <v>459</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4749039644.676108</v>
+        <v>4167941703.669518</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1444343004654544</v>
+        <v>0.1768930881591151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0259887059357012</v>
+        <v>0.02933508852241181</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>315</v>
+      </c>
+      <c r="J71" t="n">
+        <v>461</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33.0683654643979</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1746154707.470879</v>
+        <v>1500736759.37703</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09350357281543353</v>
+        <v>0.08114586966072014</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05198651478280707</v>
+        <v>0.05215339554524797</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2402364739.639318</v>
+        <v>2978637395.130894</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07085955343352376</v>
+        <v>0.08389536984070607</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05197983480359038</v>
+        <v>0.04893082049793331</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2676485964.218791</v>
+        <v>2988717988.923154</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1623450943604469</v>
+        <v>0.1756798409220395</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02217221845970149</v>
+        <v>0.03233636355112887</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>134</v>
+      </c>
+      <c r="J74" t="n">
+        <v>457</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1528907335.745943</v>
+        <v>2267635303.895457</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1303408834226683</v>
+        <v>0.151177780400313</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02714223981175865</v>
+        <v>0.03391881344631641</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4154278294.26185</v>
+        <v>3227111168.485471</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1165918029003561</v>
+        <v>0.106856726048432</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03107619550129952</v>
+        <v>0.02269495309776841</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>221</v>
+      </c>
+      <c r="J76" t="n">
+        <v>461</v>
+      </c>
+      <c r="K76" t="n">
+        <v>24.93771068613893</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1642764225.706065</v>
+        <v>1563894973.608006</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1230386666066172</v>
+        <v>0.1271603563084963</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02345437891105961</v>
+        <v>0.0238151384424429</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3693577219.149909</v>
+        <v>4280903155.789696</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09300203591833989</v>
+        <v>0.1177243998245905</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04136130962509123</v>
+        <v>0.04662361683696938</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>230</v>
+      </c>
+      <c r="J78" t="n">
+        <v>462</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1411166158.08336</v>
+        <v>1577497664.808188</v>
       </c>
       <c r="F79" t="n">
-        <v>0.146426871496337</v>
+        <v>0.119088696105882</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03872847677644144</v>
+        <v>0.03393328335412431</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3761745257.320235</v>
+        <v>4086197536.516276</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08833152546951784</v>
+        <v>0.09448154499448067</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03764585748475752</v>
+        <v>0.02854745089677534</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>225</v>
+      </c>
+      <c r="J80" t="n">
+        <v>462</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3702362215.37874</v>
+        <v>4710800832.242112</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08807474164731033</v>
+        <v>0.1299744108271656</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02929319025149192</v>
+        <v>0.0245576919298136</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>215</v>
+      </c>
+      <c r="J81" t="n">
+        <v>462</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5360668474.675463</v>
+        <v>3658244638.87725</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1657332953445946</v>
+        <v>0.1787077619912652</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01818534159845475</v>
+        <v>0.02266462069890184</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>307</v>
+      </c>
+      <c r="J82" t="n">
+        <v>461</v>
+      </c>
+      <c r="K82" t="n">
+        <v>30.42155388548669</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2091814662.211848</v>
+        <v>2373400691.27874</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09573585072119085</v>
+        <v>0.1433805030869139</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03733166976820392</v>
+        <v>0.03192320908115501</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2466793020.437752</v>
+        <v>1820584894.322368</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07945521011082368</v>
+        <v>0.07882729621285436</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0344097201973133</v>
+        <v>0.03710550625758856</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2703980768.698049</v>
+        <v>2566300900.811685</v>
       </c>
       <c r="F85" t="n">
-        <v>0.176546152642589</v>
+        <v>0.1781650784944264</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0558086331789552</v>
+        <v>0.04221780433526814</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1853520083.866391</v>
+        <v>2689948660.473278</v>
       </c>
       <c r="F86" t="n">
-        <v>0.136766306542847</v>
+        <v>0.1442707332541792</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02657881847841252</v>
+        <v>0.02727864817027216</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1061837615.598068</v>
+        <v>1166731624.354147</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1241841426038543</v>
+        <v>0.1438680750705234</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03002549572219853</v>
+        <v>0.03851144218832692</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3698174145.767937</v>
+        <v>2672936159.678624</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1681135253931453</v>
+        <v>0.1674360381348202</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03364388518692447</v>
+        <v>0.02947088919995071</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2905563888.823794</v>
+        <v>3394693099.200716</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1229860153829598</v>
+        <v>0.1433537907599245</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03487711103302586</v>
+        <v>0.03675054551507138</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1816142484.554447</v>
+        <v>1770829132.84402</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1085319298457849</v>
+        <v>0.1327115803802294</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04433980482348707</v>
+        <v>0.04626699663207995</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1551427018.565292</v>
+        <v>2034004795.877714</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1294599076129868</v>
+        <v>0.1777713841867541</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04680809015266539</v>
+        <v>0.05284775930607524</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2005292821.309092</v>
+        <v>1883950571.284456</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0911169577979786</v>
+        <v>0.08849907797572716</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04554434863978073</v>
+        <v>0.03265838725562275</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4747478879.931664</v>
+        <v>3795076805.545783</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1383043579788625</v>
+        <v>0.08853216166960895</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0448791108099271</v>
+        <v>0.04283061194147381</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>222</v>
+      </c>
+      <c r="J93" t="n">
+        <v>462</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1553847775.177634</v>
+        <v>1901184216.518889</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1176920953526967</v>
+        <v>0.1454456260638918</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03291660550486898</v>
+        <v>0.04263894028483334</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2953447949.22909</v>
+        <v>2984606549.553993</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09943669684025018</v>
+        <v>0.1157532544357323</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03917794044711607</v>
+        <v>0.05059758205393263</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2207546294.510615</v>
+        <v>1855321272.344808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1087076057263424</v>
+        <v>0.140593377098973</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04478808683304858</v>
+        <v>0.0451478271512987</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5377372138.611491</v>
+        <v>3603773809.192004</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1187685005025893</v>
+        <v>0.1097890300487444</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02874408569794797</v>
+        <v>0.02454394624352241</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>240</v>
+      </c>
+      <c r="J97" t="n">
+        <v>460</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3259414939.29185</v>
+        <v>3365567649.354148</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08421409888746449</v>
+        <v>0.1098503625106602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02652330154643683</v>
+        <v>0.0233272084595534</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>116</v>
+      </c>
+      <c r="J98" t="n">
+        <v>460</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3390844394.331191</v>
+        <v>2124414634.377037</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1269426763866388</v>
+        <v>0.1397003264016062</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02608247512258996</v>
+        <v>0.02514124578296575</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3342763265.213562</v>
+        <v>3857616188.04686</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1195561090993901</v>
+        <v>0.17197668903659</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02029131737522172</v>
+        <v>0.02244983731597927</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>215</v>
+      </c>
+      <c r="J100" t="n">
+        <v>462</v>
+      </c>
+      <c r="K100" t="n">
+        <v>35.17363136165303</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3035953972.985353</v>
+        <v>3518579958.12662</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2141796730534564</v>
+        <v>0.151499858850748</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05311628781636803</v>
+        <v>0.05456301551056886</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
